--- a/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
+++ b/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.86430199121347</v>
+        <v>0.13569800878653</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.579146498912277</v>
+        <v>0.420853501087723</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.974483413177925</v>
+        <v>0.025516586822075</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.386374945325158</v>
+        <v>0.613625054674842</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>

--- a/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
+++ b/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.998172585865071</v>
+        <v>0.830902569742766</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.794871794871795</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-13.4321074964639</v>
+        <v>-3.89392324093817</v>
       </c>
       <c r="L2" t="n">
-        <v>-21.657351809059</v>
+        <v>-11.6211606208031</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.07056817469744</v>
+        <v>2.70446507008038</v>
       </c>
       <c r="N2" t="n">
-        <v>-26.8642149929279</v>
+        <v>-7.41699664940603</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.881758811187011</v>
+        <v>0.547478401550653</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.674418604651163</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.110821744627054</v>
+        <v>0.0025452961672473</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0446011593336181</v>
+        <v>-0.180530104751298</v>
       </c>
       <c r="M3" t="n">
-        <v>0.325753728852265</v>
+        <v>0.241073844138568</v>
       </c>
       <c r="N3" t="n">
-        <v>10.0747040570049</v>
+        <v>0.221330101499773</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.13569800878653</v>
+        <v>0.0432347922466449</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.913793103448276</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.475</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0748974709501023</v>
+        <v>-0.128979378881988</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.199179920866805</v>
+        <v>-0.249549689440994</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0647805897129866</v>
+        <v>-0.004226917460677</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.715011655848232</v>
+        <v>-1.22837503697131</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0099242458146845</v>
+        <v>0.140043605405749</v>
       </c>
       <c r="G5" t="n">
-        <v>0.362068965517241</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H5" t="n">
-        <v>0.224137931034483</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004617572692793</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0013225021540438</v>
+        <v>0.0009068110704154</v>
       </c>
       <c r="N5" t="n">
-        <v>7.69595448798989</v>
+        <v>5.53912647861692</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.261923699106554</v>
+        <v>0.326513933073705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
         <v>0.844827586206897</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K6" t="n">
-        <v>11.3495762711864</v>
+        <v>7.58961038961039</v>
       </c>
       <c r="L6" t="n">
-        <v>-19.9530696686295</v>
+        <v>-19.6265861237688</v>
       </c>
       <c r="M6" t="n">
-        <v>58.3638419954231</v>
+        <v>55.5162875483943</v>
       </c>
       <c r="N6" t="n">
-        <v>5.67478813559322</v>
+        <v>3.89210789210789</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.353030176709248</v>
+        <v>0.0891131316284075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.862068965517241</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.155172413793103</v>
+        <v>0.189655172413793</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.567764890614105</v>
+        <v>0.999460635246632</v>
       </c>
       <c r="G8" t="n">
-        <v>0.155172413793103</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H8" t="n">
         <v>0.120689655172414</v>
@@ -1134,16 +1134,16 @@
         <v>0.0035</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0005166195190947</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0002509951223541</v>
+        <v>-0.0007983525221868</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-14.7605576884219</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0598073572337489</v>
+        <v>0.844478287038555</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.797</v>
+        <v>0.7915</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06368250843644541</v>
+        <v>-0.0426915584415584</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0044524781969697</v>
+        <v>-0.103766327936549</v>
       </c>
       <c r="M9" t="n">
-        <v>0.128789608589397</v>
+        <v>0.0262668999573931</v>
       </c>
       <c r="N9" t="n">
-        <v>7.99027709365689</v>
+        <v>-5.39375343544642</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.420853501087723</v>
+        <v>0.010913284935861</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.807017543859649</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.25</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.009108281290658099</v>
+        <v>-0.0647000334224597</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0627671350611885</v>
+        <v>-0.115640968149383</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0553643095290681</v>
+        <v>-0.0206041524753163</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.125631466078043</v>
+        <v>-0.892414254102893</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0622491624847889</v>
+        <v>0.839591877955167</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.982758620689655</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.82</v>
+        <v>0.7995</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0641909044193217</v>
+        <v>-0.0431659090909091</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0069789834887954</v>
+        <v>-0.104488073607851</v>
       </c>
       <c r="M11" t="n">
-        <v>0.128080762429907</v>
+        <v>0.0269804675483356</v>
       </c>
       <c r="N11" t="n">
-        <v>7.82815907552704</v>
+        <v>-5.39911308203991</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.480869789917726</v>
+        <v>0.670440112930426</v>
       </c>
       <c r="G12" t="n">
-        <v>0.310344827586207</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.362068965517241</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1.005</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.185934110610792</v>
+        <v>-0.08939008630410281</v>
       </c>
       <c r="M12" t="n">
-        <v>0.410511759824922</v>
+        <v>0.0317173739931068</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-1.99688371330163</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.119728840676129</v>
+        <v>0.355205064770471</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.810344827586207</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.055</v>
+        <v>0.0165</v>
       </c>
       <c r="K13" t="n">
-        <v>0.030103021978022</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0216560052908651</v>
+        <v>-0.0016416005632328</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0987280574343138</v>
+        <v>0.0022815247049136</v>
       </c>
       <c r="N13" t="n">
-        <v>2.85336701213479</v>
+        <v>2.01422781040615</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.587776174384634</v>
+        <v>0.330416471654861</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.551724137931034</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0185</v>
+        <v>1.185</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0397551020408163</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0016757510165835</v>
+        <v>-0.118945140705849</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0015312683390613</v>
+        <v>0.539310866116394</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.35486093171446</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.608359546519163</v>
+        <v>0.152209747876763</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.948275862068966</v>
+        <v>0.686746987951807</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.295</v>
+        <v>46</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0397972154963681</v>
+        <v>1.19950738916256</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.184666048850108</v>
+        <v>-0.8734574819697341</v>
       </c>
       <c r="M15" t="n">
-        <v>0.146811891271143</v>
+        <v>3.79345303739962</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.0731440537736</v>
+        <v>2.60762475904905</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.328368062576599</v>
+        <v>0.9068632197377769</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.714285714285714</v>
+        <v>0.633333333333333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>0.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.475912125914206</v>
+        <v>0.062740017211704</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.33184658540849</v>
+        <v>-0.0051564573344588</v>
       </c>
       <c r="M16" t="n">
-        <v>3.31880290199508</v>
+        <v>0.14900977463554</v>
       </c>
       <c r="N16" t="n">
-        <v>1.08161846798683</v>
+        <v>7.84250215146299</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.832060803807826</v>
+        <v>0.08352857112026101</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0332347588717015</v>
+        <v>-0.0398184063434291</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0199779025997852</v>
+        <v>-0.0877893240816765</v>
       </c>
       <c r="M17" t="n">
-        <v>0.113431677018634</v>
+        <v>0.0024723979761269</v>
       </c>
       <c r="N17" t="n">
-        <v>4.15434485896269</v>
+        <v>-0.379222917556468</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.152798918073196</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.330508474576271</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.025516586822075</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.855932203389831</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.565</v>
+        <v>0.006</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0500513874614594</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0968231380242995</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0106139664101656</v>
+        <v>0.0001302426530813</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.473747160070605</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.079969853942144</v>
+        <v>0.0033614235713047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.347457627118644</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H19" t="n">
-        <v>0.127118644067797</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006</v>
+        <v>139</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>13.1945812807882</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.99012306554367</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000162241382746</v>
+        <v>25.9851777769325</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>9.492504518552639</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.90369537588436e-05</v>
+        <v>0.158771984762127</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="H20" t="n">
-        <v>0.644067796610169</v>
+        <v>0.145299145299145</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>125</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>17.8505639097744</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.316314411007999</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>28.2152192926405</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14.2804511278195</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.390558487222756</v>
+        <v>0.999440402886508</v>
       </c>
       <c r="G21" t="n">
-        <v>0.888888888888889</v>
+        <v>0.161016949152542</v>
       </c>
       <c r="H21" t="n">
-        <v>0.11965811965812</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0002138466042154</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003525579150579</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-5.34616510538642</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.996951977277554</v>
+        <v>0.936907368812552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.135593220338983</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.144067796610169</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.8305</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002062394127611</v>
+        <v>-0.0214432485322896</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003648851148851</v>
+        <v>-0.0348650434045325</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.001122142466706</v>
       </c>
       <c r="N22" t="n">
-        <v>-5.1559853190288</v>
+        <v>-2.58196851683199</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.263424991767013</v>
+        <v>0.27617545032107</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.906779661016949</v>
+        <v>0.681034482758621</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.864</v>
+        <v>7.25</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0073653996325218</v>
+        <v>-0.0049852138307552</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0153325142651986</v>
+        <v>-0.0201322832119053</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0223819750048372</v>
+        <v>0.009574049803407401</v>
       </c>
       <c r="N23" t="n">
-        <v>0.852476809319656</v>
+        <v>-0.06876157007938311</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.613625054674842</v>
+        <v>0.959093321579883</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.663793103448276</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.25</v>
+        <v>0.8545</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0023663872891813</v>
+        <v>-0.0225868884540117</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0122056090370006</v>
+        <v>-0.0383026304643774</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0171077283372367</v>
+        <v>-0.0025312239736006</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0326398246783635</v>
+        <v>-2.64328712159295</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.396014882825479</v>
+        <v>0.9745640457910409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.940677966101695</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8825</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0032455570745044</v>
+        <v>-0.0163845755693582</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0150336820034203</v>
+        <v>-0.0294744593042113</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0220027452465896</v>
+        <v>-0.0029372221343333</v>
       </c>
       <c r="N25" t="n">
-        <v>0.367768507026</v>
+        <v>-1.54571467635455</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0200602762178831</v>
+        <v>0.0258247679086184</v>
       </c>
       <c r="G26" t="n">
-        <v>0.279661016949153</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.23728813559322</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="K26" t="n">
-        <v>0.104776247848537</v>
+        <v>0.0005076441973592</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.245821415515381</v>
+        <v>0.0010582365279212</v>
       </c>
       <c r="N26" t="n">
-        <v>10.4776247848537</v>
+        <v>3.38429464906185</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.457972192546176</v>
+        <v>0.263424991767013</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.788135593220339</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001425644028103</v>
+        <v>0.0260178082191781</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.009994799006645801</v>
+        <v>-0.0290953990105241</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0178680189359222</v>
+        <v>0.101261321355349</v>
       </c>
       <c r="N27" t="n">
-        <v>0.134494719632363</v>
+        <v>2.08142465753425</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0017853207227458</v>
+        <v>0.0050077708608099</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0352941176470588</v>
       </c>
       <c r="H28" t="n">
-        <v>0.372881355932203</v>
+        <v>0.5647058823529409</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.015</v>
+        <v>1.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0007272274763563</v>
+        <v>-0.0540323002577092</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0002864472471225</v>
+        <v>-0.101862036152963</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0012423469387755</v>
+        <v>-0.0158594421074548</v>
       </c>
       <c r="N28" t="n">
-        <v>4.84818317570931</v>
+        <v>-4.15633078905455</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.06989354776453439</v>
+        <v>0.936451942080227</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.898305084745763</v>
+        <v>0.8271604938271609</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.275</v>
+        <v>10.475</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0393800539083557</v>
+        <v>0.0323010204081635</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0065489075989479</v>
+        <v>-0.0018322277190376</v>
       </c>
       <c r="M29" t="n">
-        <v>0.103153317245466</v>
+        <v>0.0563252865918133</v>
       </c>
       <c r="N29" t="n">
-        <v>3.08863167908672</v>
+        <v>0.308362963323756</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0118767312289989</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.368098159509202</v>
       </c>
       <c r="H30" t="n">
+        <v>0.098159509202454</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.33</v>
+        <v>0.006</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0075986497041381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0464010680797785</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0140561808114452</v>
+        <v>0.0001155168298712</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.30262112246611</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.693322822022627</v>
+        <v>7.51004354254615e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8</v>
+        <v>0.6728395061728391</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>91.67</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>1.0260951431867</v>
+        <v>9.337218045112779</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.15061941099863</v>
+        <v>5.02749773391877</v>
       </c>
       <c r="M31" t="n">
-        <v>4.50776033082473</v>
+        <v>15.0284892630053</v>
       </c>
       <c r="N31" t="n">
-        <v>1.11933581671943</v>
+        <v>8.48838004101162</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.95679463351315</v>
+        <v>0.217980293607364</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.86875</v>
       </c>
       <c r="H32" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>4.65</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.369322219846022</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0325592212673224</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.608213599149575</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.94241333002198</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0105489858623889</v>
+        <v>0.347553058729279</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.269938650306748</v>
       </c>
       <c r="H33" t="n">
-        <v>0.888888888888889</v>
+        <v>0.104294478527607</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.355</v>
+        <v>0.003</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0244172690872837</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0348340118756456</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0152987876712485</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-6.87810396824893</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.147253696840055</v>
+        <v>0.90340775086238</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.888888888888889</v>
+        <v>0.889570552147239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.33</v>
+        <v>0.85</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.888203466157205</v>
+        <v>-0.0112934587305268</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.36142917207253</v>
+        <v>-0.0209731368034426</v>
       </c>
       <c r="M34" t="n">
-        <v>0.603382924784166</v>
+        <v>0.0019902405370267</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.9125690600608291</v>
+        <v>-1.32864220359139</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3548,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.767243915062907</v>
+        <v>0.623921194763762</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.569620253164557</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.65</v>
+        <v>7.23</v>
       </c>
       <c r="K35" t="n">
-        <v>0.126939817578401</v>
+        <v>0.00180236861584</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.115732176731197</v>
+        <v>-0.0072774892712828</v>
       </c>
       <c r="M35" t="n">
-        <v>0.213592416538588</v>
+        <v>0.0107743362831859</v>
       </c>
       <c r="N35" t="n">
-        <v>2.72988855007315</v>
+        <v>0.0249290264984797</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3611,6 +3631,892 @@
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.93304621214504</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.950920245398773</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0100518555344693</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0212321019922054</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0003095889361081</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.14878348965363</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.997454552961306</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.730061349693252</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0157750441115139</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0246388342264489</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0066584972342721</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.48821170863339</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.136983937244877</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0061349693251533</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.319018404907975</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001661737943585</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0004942826255074</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.10782529572339</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.64147833892902</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.846625766871166</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0074446560289026</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.042928759258894</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0266663611101514</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.568294353351344</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.009695429607541601</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0275891938286806</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.023935167038052</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.93800897198232</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.84389180582834</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.647791222489685</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-2.58180770016737</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.50776033082473</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.708510579120294</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.756</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.222182735528291</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0325592212673224</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.345822020231499</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.67163026762597</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.019439702257616</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0174530817174515</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0295258781383872</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0102336006192604</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-4.93024907272642</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>96.66500000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.86328193231441</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.06153682371158</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.232584945497385</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.893065672492019</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.894751149972331</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.703</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.149798734177215</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0845716519263148</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.209490860587464</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.18517402035329</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
+++ b/trend_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -148,46 +148,40 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -669,31 +663,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.830902569742766</v>
+        <v>0.204351338691863</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.736842105263158</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>52.5</v>
+        <v>42</v>
       </c>
       <c r="K2">
-        <v>-3.89392324093817</v>
+        <v>4.32069394213382</v>
       </c>
       <c r="L2">
-        <v>-11.6211606208031</v>
+        <v>-4.13683900601503</v>
       </c>
       <c r="M2">
-        <v>2.70446507008038</v>
+        <v>14.2498367685071</v>
       </c>
       <c r="N2">
-        <v>-7.41699664940603</v>
+        <v>10.28736652889</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -708,19 +702,19 @@
         <v>5518493</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
         <v>60</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -740,31 +734,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.547478401550653</v>
+        <v>0.893617673671138</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.761904761904762</v>
+        <v>0.7906976744186049</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>0.0025452961672473</v>
+        <v>0.186352040816327</v>
       </c>
       <c r="L3">
-        <v>-0.180530104751298</v>
+        <v>-0.0485700937082744</v>
       </c>
       <c r="M3">
-        <v>0.241073844138568</v>
+        <v>0.462050026335128</v>
       </c>
       <c r="N3">
-        <v>0.221330101499773</v>
+        <v>12.4234693877551</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -779,19 +773,19 @@
         <v>5518493</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" t="s">
         <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,31 +805,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.0432347922466449</v>
+        <v>0.902303131803796</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8947368421052631</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.5</v>
+        <v>10.56</v>
       </c>
       <c r="K4">
-        <v>-0.128979378881988</v>
+        <v>0.09611842105263201</v>
       </c>
       <c r="L4">
-        <v>-0.249549689440994</v>
+        <v>-0.0276329760397709</v>
       </c>
       <c r="M4">
-        <v>-0.004226917460677</v>
+        <v>0.209692987492909</v>
       </c>
       <c r="N4">
-        <v>-1.22837503697131</v>
+        <v>0.910212320574167</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -850,19 +844,19 @@
         <v>5518493</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,43 +870,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.140043605405749</v>
+        <v>0.823214534643178</v>
       </c>
       <c r="G5">
-        <v>0.310344827586207</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.258620689655172</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.006</v>
       </c>
       <c r="K5">
-        <v>0.000332347588717</v>
+        <v>-0.0002393512450851</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M5">
-        <v>0.0009068110704154</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5.53912647861692</v>
+        <v>-3.9891874180865</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1840094</v>
@@ -921,19 +915,19 @@
         <v>5518493</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,31 +947,31 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.326513933073705</v>
+        <v>0.929115638755171</v>
       </c>
       <c r="G6">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.844827586206897</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K6">
-        <v>7.58961038961039</v>
+        <v>-23.503861003861</v>
       </c>
       <c r="L6">
-        <v>-19.6265861237688</v>
+        <v>-68.6984978621432</v>
       </c>
       <c r="M6">
-        <v>55.5162875483943</v>
+        <v>1.8981327112873</v>
       </c>
       <c r="N6">
-        <v>3.89210789210789</v>
+        <v>-12.9855585656691</v>
       </c>
       <c r="O6" t="s">
         <v>43</v>
@@ -992,19 +986,19 @@
         <v>5518493</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,13 +1018,13 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.0891131316284075</v>
+        <v>0.334881196218169</v>
       </c>
       <c r="G7">
-        <v>0.827586206896552</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="H7">
-        <v>0.189655172413793</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1063,19 +1057,19 @@
         <v>5518493</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,34 +1086,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.999460635246632</v>
+        <v>0.999998925285878</v>
       </c>
       <c r="G8">
-        <v>0.172413793103448</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0005166195190947</v>
+        <v>-0.0007454081632653</v>
       </c>
       <c r="L8">
-        <v>-0.0007983525221868</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0004988787314676</v>
       </c>
       <c r="N8">
-        <v>-14.7605576884219</v>
+        <v>-24.8469387755102</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1134,19 +1128,19 @@
         <v>5518493</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1160,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.844478287038555</v>
+        <v>0.978357344728421</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.931034482758621</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7915</v>
+        <v>0.763</v>
       </c>
       <c r="K9">
-        <v>-0.0426915584415584</v>
+        <v>-0.0702403846153847</v>
       </c>
       <c r="L9">
-        <v>-0.103766327936549</v>
+        <v>-0.129502333797789</v>
       </c>
       <c r="M9">
-        <v>0.0262668999573931</v>
+        <v>-0.0114501675194373</v>
       </c>
       <c r="N9">
-        <v>-5.39375343544642</v>
+        <v>-9.205817118661161</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1840094</v>
@@ -1205,19 +1199,19 @@
         <v>5518493</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,13 +1231,13 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.010913284935861</v>
+        <v>0.658903649018671</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.789473684210526</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1252,22 +1246,22 @@
         <v>7.25</v>
       </c>
       <c r="K10">
-        <v>-0.0647000334224597</v>
+        <v>0.0119950738916256</v>
       </c>
       <c r="L10">
-        <v>-0.115640968149383</v>
+        <v>-0.0324757449015905</v>
       </c>
       <c r="M10">
-        <v>-0.0206041524753163</v>
+        <v>0.0613926914742039</v>
       </c>
       <c r="N10">
-        <v>-0.892414254102893</v>
+        <v>0.165449295056905</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1840094</v>
@@ -1276,16 +1270,16 @@
         <v>5518493</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1299,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.839591877955167</v>
+        <v>0.979345110637618</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7995</v>
+        <v>0.7755</v>
       </c>
       <c r="K11">
-        <v>-0.0431659090909091</v>
+        <v>-0.0698754995004995</v>
       </c>
       <c r="L11">
-        <v>-0.104488073607851</v>
+        <v>-0.129457377021116</v>
       </c>
       <c r="M11">
-        <v>0.0269804675483356</v>
+        <v>-0.013171326977712</v>
       </c>
       <c r="N11">
-        <v>-5.39911308203991</v>
+        <v>-9.01038033533198</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q11">
         <v>1840094</v>
@@ -1344,19 +1338,19 @@
         <v>5518493</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,43 +1364,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.670440112930426</v>
+        <v>0.99850908348115</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.827586206896552</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.005</v>
+        <v>0.95</v>
       </c>
       <c r="K12">
-        <v>-0.0200686813186813</v>
+        <v>-0.0943933955491745</v>
       </c>
       <c r="L12">
-        <v>-0.08939008630410281</v>
+        <v>-0.155402821858845</v>
       </c>
       <c r="M12">
-        <v>0.0317173739931068</v>
+        <v>-0.0456127562790654</v>
       </c>
       <c r="N12">
-        <v>-1.99688371330163</v>
+        <v>-9.9361468999131</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1840094</v>
@@ -1415,19 +1409,19 @@
         <v>5518493</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,37 +1441,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.355205064770471</v>
+        <v>0.960374948659265</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.568965517241379</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0165</v>
+        <v>0.015</v>
       </c>
       <c r="K13">
-        <v>0.000332347588717</v>
+        <v>-0.0020054916791027</v>
       </c>
       <c r="L13">
-        <v>-0.0016416005632328</v>
+        <v>-0.0037493118982976</v>
       </c>
       <c r="M13">
-        <v>0.0022815247049136</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.01422781040615</v>
+        <v>-13.3699445273519</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1840094</v>
@@ -1486,19 +1480,19 @@
         <v>5518493</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,37 +1512,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.330416471654861</v>
+        <v>0.965137315408244</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.948275862068966</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.185</v>
+        <v>0.95</v>
       </c>
       <c r="K14">
-        <v>0.0397551020408163</v>
+        <v>-0.0677317994505494</v>
       </c>
       <c r="L14">
-        <v>-0.118945140705849</v>
+        <v>-0.190534359905299</v>
       </c>
       <c r="M14">
-        <v>0.539310866116394</v>
+        <v>-0.0044707110336312</v>
       </c>
       <c r="N14">
-        <v>3.35486093171446</v>
+        <v>-7.12966310005784</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1840094</v>
@@ -1557,19 +1551,19 @@
         <v>5518493</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,37 +1583,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.152209747876763</v>
+        <v>0.180029710116343</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.686746987951807</v>
+        <v>0.716216216216216</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="K15">
         <v>1.19950738916256</v>
       </c>
       <c r="L15">
-        <v>-0.8734574819697341</v>
+        <v>-1.16285963229997</v>
       </c>
       <c r="M15">
-        <v>3.79345303739962</v>
+        <v>4.20935167646738</v>
       </c>
       <c r="N15">
-        <v>2.60762475904905</v>
+        <v>2.63627997618145</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q15">
         <v>1840094</v>
@@ -1628,19 +1622,19 @@
         <v>5518493</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" t="s">
         <v>60</v>
-      </c>
-      <c r="V15" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1660,37 +1654,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.9068632197377769</v>
+        <v>0.995215876417371</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.633333333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="K16">
-        <v>0.062740017211704</v>
+        <v>0.178579871104993</v>
       </c>
       <c r="L16">
-        <v>-0.0051564573344588</v>
+        <v>0.0537225436019262</v>
       </c>
       <c r="M16">
-        <v>0.14900977463554</v>
+        <v>0.294806954279974</v>
       </c>
       <c r="N16">
-        <v>7.84250215146299</v>
+        <v>15.5286844439124</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q16">
         <v>1840094</v>
@@ -1699,19 +1693,19 @@
         <v>5518493</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" t="s">
         <v>61</v>
-      </c>
-      <c r="W16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1731,7 +1725,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.08352857112026101</v>
+        <v>0.702440085952844</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1743,25 +1737,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.5</v>
+        <v>10.59</v>
       </c>
       <c r="K17">
-        <v>-0.0398184063434291</v>
+        <v>0.0100205949872045</v>
       </c>
       <c r="L17">
-        <v>-0.0877893240816765</v>
+        <v>-0.0267499550069709</v>
       </c>
       <c r="M17">
-        <v>0.0024723979761269</v>
+        <v>0.0674038081444865</v>
       </c>
       <c r="N17">
-        <v>-0.379222917556468</v>
+        <v>0.0946231821265769</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1840094</v>
@@ -1770,19 +1764,19 @@
         <v>5518493</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,25 +1790,25 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>0.152798918073196</v>
+        <v>0.164742797565848</v>
       </c>
       <c r="G18">
-        <v>0.330508474576271</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="H18">
-        <v>0.135593220338983</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1823,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0001302426530813</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1840094</v>
@@ -1841,19 +1835,19 @@
         <v>5518493</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,37 +1867,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0033614235713047</v>
+        <v>0.127575303587181</v>
       </c>
       <c r="G19">
-        <v>0.0169491525423729</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H19">
-        <v>0.669491525423729</v>
+        <v>0.7435897435897439</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19">
-        <v>13.1945812807882</v>
+        <v>4.98484957298137</v>
       </c>
       <c r="L19">
-        <v>4.99012306554367</v>
+        <v>-1.96148667465186</v>
       </c>
       <c r="M19">
-        <v>25.9851777769325</v>
+        <v>13.0769213479088</v>
       </c>
       <c r="N19">
-        <v>9.492504518552639</v>
+        <v>3.56060683784383</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1840094</v>
@@ -1912,19 +1906,19 @@
         <v>5518493</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,13 +1938,13 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.158771984762127</v>
+        <v>0.0352677756630245</v>
       </c>
       <c r="G20">
-        <v>0.863247863247863</v>
+        <v>0.88034188034188</v>
       </c>
       <c r="H20">
-        <v>0.145299145299145</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1974,7 +1968,7 @@
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1840094</v>
@@ -1983,19 +1977,19 @@
         <v>5518493</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2015,10 +2009,10 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>0.999440402886508</v>
+        <v>0.999997710129533</v>
       </c>
       <c r="G21">
-        <v>0.161016949152542</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="H21">
         <v>0.127118644067797</v>
@@ -2027,19 +2021,19 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K21">
-        <v>-0.0002138466042154</v>
+        <v>-0.0003490205446727</v>
       </c>
       <c r="L21">
-        <v>-0.0003525579150579</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0001932539682539</v>
       </c>
       <c r="N21">
-        <v>-5.34616510538642</v>
+        <v>-11.6340181557573</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
@@ -2054,19 +2048,19 @@
         <v>5518493</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2086,7 +2080,7 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.936907368812552</v>
+        <v>0.995117229852863</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2098,25 +2092,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8305</v>
+        <v>0.7915</v>
       </c>
       <c r="K22">
-        <v>-0.0214432485322896</v>
+        <v>-0.0299112829845314</v>
       </c>
       <c r="L22">
-        <v>-0.0348650434045325</v>
+        <v>-0.0519547904971976</v>
       </c>
       <c r="M22">
-        <v>0.001122142466706</v>
+        <v>-0.0143086090414978</v>
       </c>
       <c r="N22">
-        <v>-2.58196851683199</v>
+        <v>-3.77906291655482</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1840094</v>
@@ -2125,19 +2119,19 @@
         <v>5518493</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,13 +2151,13 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.27617545032107</v>
+        <v>0.589681179486472</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.681034482758621</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2172,22 +2166,22 @@
         <v>7.25</v>
       </c>
       <c r="K23">
-        <v>-0.0049852138307552</v>
+        <v>0.0023088315502411</v>
       </c>
       <c r="L23">
-        <v>-0.0201322832119053</v>
+        <v>-0.0128018834864581</v>
       </c>
       <c r="M23">
-        <v>0.009574049803407401</v>
+        <v>0.0175273919831991</v>
       </c>
       <c r="N23">
-        <v>-0.06876157007938311</v>
+        <v>0.0318459524171199</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1840094</v>
@@ -2196,16 +2190,16 @@
         <v>5518493</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2219,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.959093321579883</v>
+        <v>0.996421966333862</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.957627118644068</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8545</v>
+        <v>0.8075</v>
       </c>
       <c r="K24">
-        <v>-0.0225868884540117</v>
+        <v>-0.0286782988004362</v>
       </c>
       <c r="L24">
-        <v>-0.0383026304643774</v>
+        <v>-0.0506766427244164</v>
       </c>
       <c r="M24">
-        <v>-0.0025312239736006</v>
+        <v>-0.014001105590348</v>
       </c>
       <c r="N24">
-        <v>-2.64328712159295</v>
+        <v>-3.55149211150913</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q24">
         <v>1840094</v>
@@ -2264,19 +2258,19 @@
         <v>5518493</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2296,37 +2290,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.9745640457910409</v>
+        <v>0.999833698245928</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.76271186440678</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.06</v>
+        <v>1.045</v>
       </c>
       <c r="K25">
-        <v>-0.0163845755693582</v>
+        <v>-0.0324555707450444</v>
       </c>
       <c r="L25">
-        <v>-0.0294744593042113</v>
+        <v>-0.0484682750750829</v>
       </c>
       <c r="M25">
-        <v>-0.0029372221343333</v>
+        <v>-0.0199238790997873</v>
       </c>
       <c r="N25">
-        <v>-1.54571467635455</v>
+        <v>-3.10579624354492</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q25">
         <v>1840094</v>
@@ -2335,19 +2329,19 @@
         <v>5518493</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,13 +2361,13 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0258247679086184</v>
+        <v>0.788613444424854</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.38135593220339</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2382,22 +2376,22 @@
         <v>0.015</v>
       </c>
       <c r="K26">
-        <v>0.0005076441973592</v>
+        <v>-0.0001566252144082</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0005240472173632</v>
       </c>
       <c r="M26">
-        <v>0.0010582365279212</v>
+        <v>0.000188276293859</v>
       </c>
       <c r="N26">
-        <v>3.38429464906185</v>
+        <v>-1.04416809605489</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1840094</v>
@@ -2406,19 +2400,19 @@
         <v>5518493</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,37 +2432,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.263424991767013</v>
+        <v>0.860473970533684</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.88135593220339</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="K27">
-        <v>0.0260178082191781</v>
+        <v>-0.029987684729064</v>
       </c>
       <c r="L27">
-        <v>-0.0290953990105241</v>
+        <v>-0.0692519429243698</v>
       </c>
       <c r="M27">
-        <v>0.101261321355349</v>
+        <v>0.0159294092541778</v>
       </c>
       <c r="N27">
-        <v>2.08142465753425</v>
+        <v>-2.43802314870439</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q27">
         <v>1840094</v>
@@ -2477,19 +2471,19 @@
         <v>5518493</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2503,43 +2497,43 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0050077708608099</v>
+        <v>0.37717922607457</v>
       </c>
       <c r="G28">
-        <v>0.0352941176470588</v>
+        <v>0.0315789473684211</v>
       </c>
       <c r="H28">
-        <v>0.5647058823529409</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="K28">
-        <v>-0.0540323002577092</v>
+        <v>-0.0021617459985666</v>
       </c>
       <c r="L28">
-        <v>-0.101862036152963</v>
+        <v>-0.0410499829622863</v>
       </c>
       <c r="M28">
-        <v>-0.0158594421074548</v>
+        <v>0.028386275982767</v>
       </c>
       <c r="N28">
-        <v>-4.15633078905455</v>
+        <v>-0.154410428469046</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1840094</v>
@@ -2548,19 +2542,19 @@
         <v>5518493</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" t="s">
         <v>61</v>
-      </c>
-      <c r="W28" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2580,37 +2574,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.936451942080227</v>
+        <v>0.994471635906608</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.8271604938271609</v>
+        <v>0.816091954022989</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>10.475</v>
+        <v>10.495</v>
       </c>
       <c r="K29">
-        <v>0.0323010204081635</v>
+        <v>0.044981527093596</v>
       </c>
       <c r="L29">
-        <v>-0.0018322277190376</v>
+        <v>0.0149965643565527</v>
       </c>
       <c r="M29">
-        <v>0.0563252865918133</v>
+        <v>0.06844396028487761</v>
       </c>
       <c r="N29">
-        <v>0.308362963323756</v>
+        <v>0.428599591172901</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q29">
         <v>1840094</v>
@@ -2619,19 +2613,19 @@
         <v>5518493</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,19 +2639,19 @@
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
       </c>
       <c r="F30">
-        <v>0.0118767312289989</v>
+        <v>0.174599017216764</v>
       </c>
       <c r="G30">
-        <v>0.368098159509202</v>
+        <v>0.382857142857143</v>
       </c>
       <c r="H30">
-        <v>0.098159509202454</v>
+        <v>0.0914285714285714</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2672,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0001155168298712</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2681,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1840094</v>
@@ -2690,19 +2684,19 @@
         <v>5518493</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2722,13 +2716,13 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>7.51004354254615E-05</v>
+        <v>0.0008396254908487</v>
       </c>
       <c r="G31">
-        <v>0.0123456790123457</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H31">
-        <v>0.6728395061728391</v>
+        <v>0.705202312138728</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2737,22 +2731,22 @@
         <v>110</v>
       </c>
       <c r="K31">
-        <v>9.337218045112779</v>
+        <v>6.48258201585719</v>
       </c>
       <c r="L31">
-        <v>5.02749773391877</v>
+        <v>2.91908091908092</v>
       </c>
       <c r="M31">
-        <v>15.0284892630053</v>
+        <v>10.4357142857143</v>
       </c>
       <c r="N31">
-        <v>8.48838004101162</v>
+        <v>5.89325637805199</v>
       </c>
       <c r="O31" t="s">
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q31">
         <v>1840094</v>
@@ -2761,19 +2755,19 @@
         <v>5518493</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,13 +2787,13 @@
         <v>41</v>
       </c>
       <c r="F32">
-        <v>0.217980293607364</v>
+        <v>0.292524911391198</v>
       </c>
       <c r="G32">
-        <v>0.86875</v>
+        <v>0.8720930232558139</v>
       </c>
       <c r="H32">
-        <v>0.1375</v>
+        <v>0.133720930232558</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2823,7 +2817,7 @@
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1840094</v>
@@ -2832,19 +2826,19 @@
         <v>5518493</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2864,13 +2858,13 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>0.347553058729279</v>
+        <v>0.8369393999392259</v>
       </c>
       <c r="G33">
-        <v>0.269938650306748</v>
+        <v>0.297142857142857</v>
       </c>
       <c r="H33">
-        <v>0.104294478527607</v>
+        <v>0.0971428571428571</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2882,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-6.08938179062565E-05</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -2903,19 +2897,19 @@
         <v>5518493</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2935,31 +2929,31 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.90340775086238</v>
+        <v>0.9782916132527441</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.889570552147239</v>
+        <v>0.897142857142857</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="K34">
-        <v>-0.0112934587305268</v>
+        <v>-0.0140354902936784</v>
       </c>
       <c r="L34">
-        <v>-0.0209731368034426</v>
+        <v>-0.0217543030072961</v>
       </c>
       <c r="M34">
-        <v>0.0019902405370267</v>
+        <v>-0.0026499788777942</v>
       </c>
       <c r="N34">
-        <v>-1.32864220359139</v>
+        <v>-1.71164515776566</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
@@ -2974,19 +2968,19 @@
         <v>5518493</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,37 +3000,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.623921194763762</v>
+        <v>0.805083361640104</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.569620253164557</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>7.23</v>
+        <v>7.24</v>
       </c>
       <c r="K35">
-        <v>0.00180236861584</v>
+        <v>0.0043241910023678</v>
       </c>
       <c r="L35">
-        <v>-0.0072774892712828</v>
+        <v>-0.0038288775737619</v>
       </c>
       <c r="M35">
-        <v>0.0107743362831859</v>
+        <v>0.0122597255305094</v>
       </c>
       <c r="N35">
-        <v>0.0249290264984797</v>
+        <v>0.0597263950603292</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q35">
         <v>1840094</v>
@@ -3045,16 +3039,16 @@
         <v>5518493</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,31 +3068,31 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.93304621214504</v>
+        <v>0.987045942312932</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.950920245398773</v>
+        <v>0.9314285714285711</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.875</v>
+        <v>0.834</v>
       </c>
       <c r="K36">
-        <v>-0.0100518555344693</v>
+        <v>-0.0143597703386532</v>
       </c>
       <c r="L36">
-        <v>-0.0212321019922054</v>
+        <v>-0.0229114723057353</v>
       </c>
       <c r="M36">
-        <v>0.0003095889361081</v>
+        <v>-0.003115944066523</v>
       </c>
       <c r="N36">
-        <v>-1.14878348965363</v>
+        <v>-1.72179500463467</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
@@ -3113,19 +3107,19 @@
         <v>5518493</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,31 +3139,31 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.997454552961306</v>
+        <v>0.99995040566549</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.730061349693252</v>
+        <v>0.702857142857143</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.06</v>
+        <v>1.028</v>
       </c>
       <c r="K37">
-        <v>-0.0157750441115139</v>
+        <v>-0.0199014423076923</v>
       </c>
       <c r="L37">
-        <v>-0.0246388342264489</v>
+        <v>-0.0282495450409463</v>
       </c>
       <c r="M37">
-        <v>-0.0066584972342721</v>
+        <v>-0.0116995777575667</v>
       </c>
       <c r="N37">
-        <v>-1.48821170863339</v>
+        <v>-1.93593796767435</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
@@ -3184,19 +3178,19 @@
         <v>5518493</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38">
-        <v>0.136983937244877</v>
+        <v>0.630136596430065</v>
       </c>
       <c r="G38">
-        <v>0.0061349693251533</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H38">
-        <v>0.319018404907975</v>
+        <v>0.297142857142857</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3231,22 +3225,22 @@
         <v>0.015</v>
       </c>
       <c r="K38">
-        <v>0.0001661737943585</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-0.0002393512450851</v>
       </c>
       <c r="M38">
-        <v>0.0004942826255074</v>
+        <v>0.0001791447967119</v>
       </c>
       <c r="N38">
-        <v>1.10782529572339</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1840094</v>
@@ -3255,19 +3249,19 @@
         <v>5518493</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,37 +3281,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.64147833892902</v>
+        <v>0.960222192735511</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.846625766871166</v>
+        <v>0.8171428571428569</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="K39">
-        <v>-0.0074446560289026</v>
+        <v>-0.025376138952164</v>
       </c>
       <c r="L39">
-        <v>-0.042928759258894</v>
+        <v>-0.0494377283831052</v>
       </c>
       <c r="M39">
-        <v>0.0266663611101514</v>
+        <v>-0.0023303577247157</v>
       </c>
       <c r="N39">
-        <v>-0.568294353351344</v>
+        <v>-2.01397928191778</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1840094</v>
@@ -3326,19 +3320,19 @@
         <v>5518493</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.889664319040077</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3370,25 +3364,25 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="K40">
-        <v>0.009695429607541601</v>
+        <v>0.0141426439023979</v>
       </c>
       <c r="L40">
-        <v>-0.0275891938286806</v>
+        <v>-0.014832643918193</v>
       </c>
       <c r="M40">
-        <v>0.023935167038052</v>
+        <v>0.0346389004999094</v>
       </c>
       <c r="N40">
-        <v>2.93800897198232</v>
+        <v>4.0407554006851</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q40">
         <v>1840094</v>
@@ -3397,16 +3391,16 @@
         <v>5518493</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3426,37 +3420,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.84389180582834</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>91.43000000000001</v>
+        <v>91.67</v>
       </c>
       <c r="K41">
-        <v>0.647791222489685</v>
+        <v>2.51178345719128</v>
       </c>
       <c r="L41">
-        <v>-2.58180770016737</v>
+        <v>-3.56958564903466</v>
       </c>
       <c r="M41">
-        <v>4.50776033082473</v>
+        <v>7.54891918555006</v>
       </c>
       <c r="N41">
-        <v>0.708510579120294</v>
+        <v>2.74002777047156</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1840094</v>
@@ -3465,16 +3459,16 @@
         <v>5518493</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3494,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.95679463351315</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3509,22 +3503,22 @@
         <v>4.756</v>
       </c>
       <c r="K42">
-        <v>0.222182735528291</v>
+        <v>0.0256417335008214</v>
       </c>
       <c r="L42">
-        <v>0.0325592212673224</v>
+        <v>-0.825733493451784</v>
       </c>
       <c r="M42">
-        <v>0.345822020231499</v>
+        <v>0.2629135240538</v>
       </c>
       <c r="N42">
-        <v>4.67163026762597</v>
+        <v>0.539144943246875</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1840094</v>
@@ -3533,16 +3527,16 @@
         <v>5518493</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3562,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.019439702257616</v>
+        <v>0.161618161662385</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,22 +3571,22 @@
         <v>0.354</v>
       </c>
       <c r="K43">
-        <v>-0.0174530817174515</v>
+        <v>-0.0095859690444145</v>
       </c>
       <c r="L43">
-        <v>-0.0295258781383872</v>
+        <v>-0.024447133483916</v>
       </c>
       <c r="M43">
-        <v>-0.0102336006192604</v>
+        <v>0.004879814138298</v>
       </c>
       <c r="N43">
-        <v>-4.93024907272642</v>
+        <v>-2.70790086000411</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q43">
         <v>1840094</v>
@@ -3601,16 +3595,16 @@
         <v>5518493</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,13 +3624,13 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.088983712984032</v>
+        <v>0.294253177635855</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3645,22 +3639,22 @@
         <v>96.66500000000001</v>
       </c>
       <c r="K44">
-        <v>-0.86328193231441</v>
+        <v>-0.408328675237563</v>
       </c>
       <c r="L44">
-        <v>-2.06153682371158</v>
+        <v>-2.05713584116191</v>
       </c>
       <c r="M44">
-        <v>0.232584945497385</v>
+        <v>0.940007066699559</v>
       </c>
       <c r="N44">
-        <v>-0.893065672492019</v>
+        <v>-0.422416257422607</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q44">
         <v>1840094</v>
@@ -3669,16 +3663,16 @@
         <v>5518493</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3710,25 +3704,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>4.703</v>
+        <v>4.545</v>
       </c>
       <c r="K45">
-        <v>0.149798734177215</v>
+        <v>0.139352409638554</v>
       </c>
       <c r="L45">
-        <v>-0.0845716519263148</v>
+        <v>-0.105920088658191</v>
       </c>
       <c r="M45">
-        <v>0.209490860587464</v>
+        <v>0.192511565584715</v>
       </c>
       <c r="N45">
-        <v>3.18517402035329</v>
+        <v>3.06605961801</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q45">
         <v>1840094</v>
@@ -3737,16 +3731,16 @@
         <v>5518493</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
